--- a/xlsx/公用事业_intext.xlsx
+++ b/xlsx/公用事业_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>公共設施</t>
+    <t>公共设施</t>
   </si>
   <si>
     <t>政策_政策_加州_公用事业</t>
@@ -35,31 +35,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>機場</t>
+    <t>机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B</t>
   </si>
   <si>
-    <t>橋</t>
+    <t>桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E9%A0%BB</t>
   </si>
   <si>
-    <t>寬頻</t>
+    <t>宽频</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>運河</t>
+    <t>运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%AE%A1%E7%B7%9A</t>
   </si>
   <si>
-    <t>維生管線</t>
+    <t>维生管线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%9D%9D</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E5%BC%80%E5%8F%91</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>醫院</t>
+    <t>医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%A4</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>公園</t>
+    <t>公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%8F%A3</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>公立學校</t>
+    <t>公立学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>公共空間</t>
+    <t>公共空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>鐵路運輸</t>
+    <t>铁路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%9B%BA%E9%AB%94%E5%BB%A2%E7%89%A9</t>
   </si>
   <si>
-    <t>都市固體廢物</t>
+    <t>都市固体废物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E4%BF%A1</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E6%B0%B4%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>供水系統</t>
+    <t>供水系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B0%B4</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Infrastructure_Asset_Management</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B%E7%9B%B4%E6%8E%A5%E6%92%A5%E6%AC%BE</t>
   </si>
   <si>
-    <t>立法機構直接撥款</t>
+    <t>立法机构直接拨款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E9%80%B1%E6%9C%9F%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>生命週期評估</t>
+    <t>生命周期评估</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maintenance,_repair,_and_operations</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%A5%AD%E7%A8%85</t>
   </si>
   <si>
-    <t>物業稅</t>
+    <t>物业税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%A7%81%E7%87%9F%E5%90%88%E4%BD%9C%E5%88%B6</t>
   </si>
   <si>
-    <t>公共私營合作制</t>
+    <t>公共私营合作制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Public_capital</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E7%B4%9A</t>
   </si>
   <si>
-    <t>升級</t>
+    <t>升级</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Spillover_effect</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E4%BA%A4%E9%80%9A%E7%AE%A1%E5%88%B6</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%B2%B9%E7%A8%85</t>
   </si>
   <si>
-    <t>燃油稅</t>
+    <t>燃油税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E6%B0%B4</t>
@@ -389,13 +389,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>高速鐵路</t>
+    <t>高速铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Land-use_planning</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renewable_resource</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%86%E6%BB%B2%E9%80%8F</t>
   </si>
   <si>
-    <t>逆滲透</t>
+    <t>逆渗透</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>智慧電網</t>
+    <t>智慧电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%99%BA%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>明智開發</t>
+    <t>明智开发</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stormwater</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>無線通訊</t>
+    <t>无线通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>電機工程</t>
+    <t>电机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0%E5%B7%A5%E7%A8%8B</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E8%B2%AB%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E7%AE%A1%E9%81%93</t>
   </si>
   <si>
-    <t>縱貫阿拉斯加管道</t>
+    <t>纵贯阿拉斯加管道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%AB%98%E9%80%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>德國高速公路</t>
+    <t>德国高速公路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_policy_of_Brazil</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%85%8B%E6%9E%97%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>布魯克林大橋</t>
+    <t>布鲁克林大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%B3%95%E6%B5%B7%E5%BA%95%E9%9A%A7%E9%81%93</t>
@@ -623,25 +623,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E6%B0%B4%E5%A3%A9</t>
   </si>
   <si>
-    <t>胡佛水壩</t>
+    <t>胡佛水坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>香港國際機場</t>
+    <t>香港国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%9A%9B%E7%89%B9%E5%BF%AB%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>城際特快列車</t>
+    <t>城际特快列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reliance_Petroleum</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1-%E5%A5%A7%E5%85%8B%E8%98%AD%E6%B5%B7%E7%81%A3%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>舊金山-奧克蘭海灣大橋</t>
+    <t>旧金山-奥克兰海湾大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%B1%9F%E4%B8%89%E5%B3%A1%E6%B0%B4%E5%88%A9%E6%9E%A2%E7%BA%BD%E5%B7%A5%E7%A8%8B</t>
@@ -683,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%B9%E7%B7%9A</t>
   </si>
   <si>
-    <t>新幹線</t>
+    <t>新干线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%AB%98%E9%80%9F%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>西班牙高速鐵道</t>
+    <t>西班牙高速铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E9%AB%98%E9%80%9F%E5%88%97%E8%BD%A6</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%B4%B2%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>越洲鐵路</t>
+    <t>越洲铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>輸電系統</t>
+    <t>输电系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Public_Infrastructure</t>
@@ -725,19 +725,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>電力</t>
+    <t>电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E7%89%A9</t>
   </si>
   <si>
-    <t>廢物</t>
+    <t>废物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%B0%A3</t>
   </si>
   <si>
-    <t>燃氣</t>
+    <t>燃气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%9C%BA%E5%85%B3</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%87%9F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>公營企業</t>
+    <t>公营企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>機構</t>
+    <t>机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%87%9F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>民營企業</t>
+    <t>民营企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E8%B3%84%E8%B3%82%E6%A2%9D%E4%BE%8B</t>
   </si>
   <si>
-    <t>防止賄賂條例</t>
+    <t>防止贿赂条例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B3%95%E4%BE%8B</t>
@@ -809,103 +809,103 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>行政會議</t>
+    <t>行政会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>立法會</t>
+    <t>立法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>區議會</t>
+    <t>区议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E5%8A%9B%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中華電力有限公司</t>
+    <t>中华电力有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港中文大學</t>
+    <t>香港中文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%97%9D%E8%A1%93%E7%99%BC%E5%B1%95%E5%B1%80</t>
   </si>
   <si>
-    <t>香港藝術發展局</t>
+    <t>香港艺术发展局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E9%A1%9E%E7%B5%B1%E7%87%9F%E8%99%95</t>
   </si>
   <si>
-    <t>魚類統營處</t>
+    <t>鱼类统营处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E8%8F%AF%E7%85%A4%E6%B0%A3%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港中華煤氣有限公司</t>
+    <t>香港中华煤气有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B2%B9%E8%94%B4%E5%9C%B0%E5%B0%8F%E8%BC%AA%E8%88%B9%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港油蔴地小輪船有限公司</t>
+    <t>香港油蔴地小轮船有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A9%BA%E9%81%8B%E8%B2%A8%E7%AB%99%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港空運貨站有限公司</t>
+    <t>香港空运货站有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%BB%BA%E5%B1%8B%E8%B2%B8%E6%AC%BE%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港建屋貸款有限公司</t>
+    <t>香港建屋贷款有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E7%87%88%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港電燈有限公司</t>
+    <t>香港电灯有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%87%BA%E5%8F%A3%E4%BF%A1%E7%94%A8%E4%BF%9D%E9%9A%AA%E5%B1%80</t>
   </si>
   <si>
-    <t>香港出口信用保險局</t>
+    <t>香港出口信用保险局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%88%BF%E5%B1%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>香港房屋委員會</t>
+    <t>香港房屋委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%88%BF%E5%B1%8B%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港房屋協會</t>
+    <t>香港房屋协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港理工大學</t>
+    <t>香港理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%94%9F%E7%94%A2%E5%8A%9B%E4%BF%83%E9%80%B2%E5%B1%80</t>
   </si>
   <si>
-    <t>香港生產力促進局</t>
+    <t>香港生产力促进局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B9%B3%E6%B0%91%E5%B1%8B%E5%AE%87%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -917,55 +917,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E8%A9%B1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港電話有限公司</t>
+    <t>香港电话有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%97%85%E9%81%8A%E7%99%BC%E5%B1%95%E5%B1%80</t>
   </si>
   <si>
-    <t>香港旅遊發展局</t>
+    <t>香港旅游发展局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%B2%BF%E6%98%93%E7%99%BC%E5%B1%95%E5%B1%80</t>
   </si>
   <si>
-    <t>香港貿易發展局</t>
+    <t>香港贸易发展局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E8%BB%8A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港電車有限公司</t>
+    <t>香港电车有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E9%A0%82%E7%BA%9C%E8%BB%8A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>山頂纜車有限公司</t>
+    <t>山顶缆车有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%9B%BB%E8%A6%96%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞洲電視有限公司</t>
+    <t>亚洲电视有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%B3%BD%E9%A6%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>香港賽馬會</t>
+    <t>香港赛马会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%98%9F%E5%B0%8F%E8%BC%AA%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>天星小輪有限公司</t>
+    <t>天星小轮有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電視廣播有限公司</t>
+    <t>电视广播有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%85%AC%E7%9B%8A%E9%87%91</t>
@@ -977,139 +977,139 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港大學</t>
+    <t>香港大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%AC%E8%8F%9C%E7%B5%B1%E7%87%9F%E8%99%95</t>
   </si>
   <si>
-    <t>蔬菜統營處</t>
+    <t>蔬菜统营处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%90%B5%E8%B7%AF%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港鐵路有限公司</t>
+    <t>香港铁路有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%80%83%E8%A9%A6%E5%8F%8A%E8%A9%95%E6%A0%B8%E5%B1%80</t>
   </si>
   <si>
-    <t>香港考試及評核局</t>
+    <t>香港考试及评核局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>消費者委員會</t>
+    <t>消费者委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E8%A8%93%E7%B7%B4%E5%B1%80</t>
   </si>
   <si>
-    <t>職業訓練局</t>
+    <t>职业训练局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%BB%A3%E9%90%B5%E8%B7%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>九廣鐵路公司</t>
+    <t>九广铁路公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E5%B6%BC%E5%B1%B1%E5%B7%B4%E5%A3%AB(1973)%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>新大嶼山巴士(1973)有限公司</t>
+    <t>新大屿山巴士(1973)有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港浸會大學</t>
+    <t>香港浸会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港城市大學</t>
+    <t>香港城市大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%BC%94%E8%97%9D%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>香港演藝學院</t>
+    <t>香港演艺学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港科技大學</t>
+    <t>香港科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E4%BA%8B%E5%8B%99%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>通訊事務管理局</t>
+    <t>通讯事务管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%90%B8%E7%85%99%E8%88%87%E5%81%A5%E5%BA%B7%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>香港吸煙與健康委員會</t>
+    <t>香港吸烟与健康委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E9%87%8D%E5%BB%BA%E5%B1%80</t>
   </si>
   <si>
-    <t>市區重建局</t>
+    <t>市区重建局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8%E5%8F%8A%E6%9C%9F%E8%B2%A8%E4%BA%8B%E5%8B%99%E7%9B%A3%E5%AF%9F%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>證券及期貨事務監察委員會</t>
+    <t>证券及期货事务监察委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%85%AC%E9%96%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港公開大學</t>
+    <t>香港公开大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%97%85%E9%81%8A%E6%A5%AD%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>香港旅遊業議會</t>
+    <t>香港旅游业议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%AD%B8%E8%A1%93%E5%8F%8A%E8%81%B7%E6%A5%AD%E8%B3%87%E6%AD%B7%E8%A9%95%E5%AF%A9%E5%B1%80</t>
   </si>
   <si>
-    <t>香港學術及職業資歷評審局</t>
+    <t>香港学术及职业资历评审局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>醫院管理局</t>
+    <t>医院管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>機場管理局</t>
+    <t>机场管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9F%8E%E5%BB%A3%E6%92%AD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>新城廣播有限公司</t>
+    <t>新城广播有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B6%BA%E5%8D%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>嶺南大學</t>
+    <t>岭南大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B7%B4%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -1133,25 +1133,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E8%A5%BF%E5%8D%80%E9%9A%A7%E9%81%93%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港西區隧道有限公司</t>
+    <t>香港西区隧道有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%99%E8%82%B2%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>香港教育學院</t>
+    <t>香港教育学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E6%A9%9F%E6%9C%83%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>平等機會委員會</t>
+    <t>平等机会委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%8F%B4%E5%8A%A9%E6%9C%8D%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
-    <t>法律援助服務局</t>
+    <t>法律援助服务局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%B7%E5%B9%B2%E7%BA%BF(%E9%83%8A%E9%87%8E%E5%85%AC%E5%9B%AD%E6%AE%B5)%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -1163,157 +1163,157 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E8%B3%87%E6%96%99%E7%A7%81%E9%9A%B1%E5%B0%88%E5%93%A1</t>
   </si>
   <si>
-    <t>個人資料私隱專員</t>
+    <t>个人资料私隐专员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%94%A2%E4%BB%A3%E7%90%86%E7%9B%A3%E7%AE%A1%E5%B1%80</t>
   </si>
   <si>
-    <t>地產代理監管局</t>
+    <t>地产代理监管局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E9%81%8B%E5%B7%B4%E5%A3%AB%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>龍運巴士有限公司</t>
+    <t>龙运巴士有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E7%AE%A1%E7%90%86%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉管理委員會</t>
+    <t>选举管理委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%88%B6%E6%80%A7%E5%85%AC%E7%A9%8D%E9%87%91%E8%A8%88%E5%8A%83%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>強制性公積金計劃管理局</t>
+    <t>强制性公积金计划管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%96%E7%95%8C%E7%AC%AC%E4%B8%80%E5%B7%B4%E5%A3%AB%E6%9C%8D%E5%8B%99%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>新世界第一巴士服務有限公司</t>
+    <t>新世界第一巴士服务有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%8C%89%E6%8F%AD%E8%AD%89%E5%88%B8%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港按揭證券有限公司</t>
+    <t>香港按揭证券有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%8D%B0%E9%88%94%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港印鈔有限公司</t>
+    <t>香港印钞有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BA%A4%E6%98%93%E5%8F%8A%E7%B5%90%E7%AE%97%E6%89%80%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港交易及結算所有限公司</t>
+    <t>香港交易及结算所有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A7%91%E6%8A%80%E5%9C%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港科技園公司</t>
+    <t>香港科技园公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B3%E8%A8%B4%E5%B0%88%E5%93%A1</t>
   </si>
   <si>
-    <t>申訴專員</t>
+    <t>申诉专员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%AD%98%E6%AC%BE%E4%BF%9D%E9%9A%9C%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>香港存款保障委員會</t>
+    <t>香港存款保障委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E9%80%A0%E6%A5%AD%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>建造業議會</t>
+    <t>建造业议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E9%80%A0%E6%A5%AD%E8%A8%93%E7%B7%B4%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>建造業訓練委員會</t>
+    <t>建造业训练委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E5%8C%AF%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>財務匯報局</t>
+    <t>财务汇报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E5%8F%96%E9%80%9A%E8%A8%8A%E5%8F%8A%E7%9B%A3%E5%AF%9F%E4%BA%8B%E5%8B%99%E5%B0%88%E5%93%A1</t>
   </si>
   <si>
-    <t>截取通訊及監察事務專員</t>
+    <t>截取通讯及监察事务专员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E7%9B%A3%E5%AF%9F%E8%AD%A6%E6%96%B9%E8%99%95%E7%90%86%E6%8A%95%E8%A8%B4%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>獨立監察警方處理投訴委員會</t>
+    <t>独立监察警方处理投诉委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%B9%9D%E6%96%87%E5%8C%96%E5%8D%80%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>西九文化區管理局</t>
+    <t>西九文化区管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%B8%E7%A2%BC%E5%BB%A3%E6%92%AD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港數碼廣播有限公司</t>
+    <t>香港数码广播有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BA%92%E8%81%AF%E7%B6%B2%E8%A8%BB%E5%86%8A%E7%AE%A1%E7%90%86%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港互聯網註冊管理有限公司</t>
+    <t>香港互联网注册管理有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%9F%E5%90%8D%E8%A8%BB%E5%86%8A%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港域名註冊有限公司</t>
+    <t>香港域名注册有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%87%89%E7%94%A8%E7%A7%91%E6%8A%80%E7%A0%94%E7%A9%B6%E9%99%A2%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港應用科技研究院有限公司</t>
+    <t>香港应用科技研究院有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E4%BA%8B%E5%8B%99%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>競爭事務委員會</t>
+    <t>竞争事务委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%9B%BB%E8%A6%96%E5%A8%9B%E6%A8%82%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>香港電視娛樂有限公司</t>
+    <t>香港电视娱乐有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
